--- a/helps/Historial de Jugadas.xlsx
+++ b/helps/Historial de Jugadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Winner\helps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ganador\Ganador\helps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7B744B-A820-4196-A6DA-AACA1111408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9E0C60-FF08-43BF-BAEC-514F233820CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{A3392D85-3030-46DE-B96E-7922EDC7109E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{A3392D85-3030-46DE-B96E-7922EDC7109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tinka" sheetId="2" r:id="rId1"/>
@@ -9230,8 +9230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE65A1AE-D24F-426E-B6EF-7BC880E7680E}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9534,8 +9534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FEB743-8F41-4809-BA70-E7C1EBE37B84}">
   <dimension ref="A1:H326"/>
   <sheetViews>
-    <sheetView topLeftCell="A317" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.15625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9545,6 +9545,9 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8">
+        <v>41769</v>
+      </c>
+      <c r="B1" s="8">
         <v>41769</v>
       </c>
     </row>
